--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll3-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll3-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll3</t>
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H2">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I2">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J2">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N2">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O2">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P2">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q2">
-        <v>28.941789342432</v>
+        <v>53.91527924092556</v>
       </c>
       <c r="R2">
-        <v>260.476104081888</v>
+        <v>485.2375131683301</v>
       </c>
       <c r="S2">
-        <v>0.3634651972687613</v>
+        <v>0.4146763730558896</v>
       </c>
       <c r="T2">
-        <v>0.3634651972687611</v>
+        <v>0.4146763730558897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H3">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I3">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J3">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P3">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q3">
-        <v>2.463683258698667</v>
+        <v>4.346827429976888</v>
       </c>
       <c r="R3">
-        <v>22.173149328288</v>
+        <v>39.121446869792</v>
       </c>
       <c r="S3">
-        <v>0.03094014371522645</v>
+        <v>0.03343257529851433</v>
       </c>
       <c r="T3">
-        <v>0.03094014371522644</v>
+        <v>0.03343257529851433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H4">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I4">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J4">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N4">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q4">
-        <v>0.4834375966753334</v>
+        <v>1.368358808934778</v>
       </c>
       <c r="R4">
-        <v>4.350938370078</v>
+        <v>12.315229280413</v>
       </c>
       <c r="S4">
-        <v>0.006071246644903214</v>
+        <v>0.01052440191198034</v>
       </c>
       <c r="T4">
-        <v>0.006071246644903211</v>
+        <v>0.01052440191198034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H5">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I5">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J5">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N5">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O5">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P5">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q5">
-        <v>0.196590971067</v>
+        <v>0.2384745522152222</v>
       </c>
       <c r="R5">
-        <v>1.769318739603</v>
+        <v>2.146270969937</v>
       </c>
       <c r="S5">
-        <v>0.002468885915611469</v>
+        <v>0.001834169529881082</v>
       </c>
       <c r="T5">
-        <v>0.002468885915611468</v>
+        <v>0.001834169529881083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H6">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I6">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J6">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N6">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q6">
-        <v>0.491874003935</v>
+        <v>2.364392335598444</v>
       </c>
       <c r="R6">
-        <v>4.426866035415</v>
+        <v>21.279531020386</v>
       </c>
       <c r="S6">
-        <v>0.00617719518846402</v>
+        <v>0.01818515367092579</v>
       </c>
       <c r="T6">
-        <v>0.006177195188464019</v>
+        <v>0.0181851536709258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.000448</v>
       </c>
       <c r="I7">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J7">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N7">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O7">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P7">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q7">
-        <v>31.509712594944</v>
+        <v>33.26927953856</v>
       </c>
       <c r="R7">
-        <v>283.587413354496</v>
+        <v>299.4235158470401</v>
       </c>
       <c r="S7">
-        <v>0.3957144379947627</v>
+        <v>0.2558826434262524</v>
       </c>
       <c r="T7">
-        <v>0.3957144379947626</v>
+        <v>0.2558826434262524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.000448</v>
       </c>
       <c r="I8">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J8">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P8">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q8">
         <v>2.682278918144</v>
@@ -948,10 +948,10 @@
         <v>24.140510263296</v>
       </c>
       <c r="S8">
-        <v>0.03368537530897271</v>
+        <v>0.02063010168842696</v>
       </c>
       <c r="T8">
-        <v>0.0336853753089727</v>
+        <v>0.02063010168842696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.000448</v>
       </c>
       <c r="I9">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J9">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N9">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q9">
-        <v>0.5263316496639999</v>
+        <v>0.844367540416</v>
       </c>
       <c r="R9">
-        <v>4.736984846976</v>
+        <v>7.599307863744</v>
       </c>
       <c r="S9">
-        <v>0.006609931217813326</v>
+        <v>0.006494249387473234</v>
       </c>
       <c r="T9">
-        <v>0.006609931217813323</v>
+        <v>0.006494249387473235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>2.000448</v>
       </c>
       <c r="I10">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J10">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N10">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O10">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P10">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q10">
-        <v>0.214033932864</v>
+        <v>0.147154510784</v>
       </c>
       <c r="R10">
-        <v>1.926305395776</v>
+        <v>1.324390597056</v>
       </c>
       <c r="S10">
-        <v>0.002687943192115207</v>
+        <v>0.001131803445513887</v>
       </c>
       <c r="T10">
-        <v>0.002687943192115206</v>
+        <v>0.001131803445513888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,40 +1104,40 @@
         <v>2.000448</v>
       </c>
       <c r="I11">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J11">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N11">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q11">
-        <v>0.53551659552</v>
+        <v>1.458985850752</v>
       </c>
       <c r="R11">
-        <v>4.819649359680001</v>
+        <v>13.130872656768</v>
       </c>
       <c r="S11">
-        <v>0.00672528027650333</v>
+        <v>0.01122143795687619</v>
       </c>
       <c r="T11">
-        <v>0.006725280276503328</v>
+        <v>0.01122143795687619</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H12">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I12">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J12">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N12">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O12">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P12">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q12">
-        <v>6.727864728640001</v>
+        <v>9.105142932787778</v>
       </c>
       <c r="R12">
-        <v>60.55078255776</v>
+        <v>81.94628639509001</v>
       </c>
       <c r="S12">
-        <v>0.08449182778092858</v>
+        <v>0.07003001191279901</v>
       </c>
       <c r="T12">
-        <v>0.08449182778092855</v>
+        <v>0.07003001191279902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H13">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I13">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J13">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P13">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q13">
-        <v>0.5727126095288889</v>
+        <v>0.7340866190684444</v>
       </c>
       <c r="R13">
-        <v>5.15441348576</v>
+        <v>6.606779571616</v>
       </c>
       <c r="S13">
-        <v>0.007192406078899084</v>
+        <v>0.005646050266082926</v>
       </c>
       <c r="T13">
-        <v>0.007192406078899081</v>
+        <v>0.005646050266082927</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H14">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I14">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J14">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N14">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q14">
-        <v>0.1123808454511111</v>
+        <v>0.2310866736498889</v>
       </c>
       <c r="R14">
-        <v>1.01142760906</v>
+        <v>2.079780062849</v>
       </c>
       <c r="S14">
-        <v>0.00141133382175623</v>
+        <v>0.001777347442873801</v>
       </c>
       <c r="T14">
-        <v>0.001411333821756229</v>
+        <v>0.001777347442873801</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H15">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I15">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J15">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N15">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O15">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P15">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q15">
-        <v>0.04569992009</v>
+        <v>0.04027327530011111</v>
       </c>
       <c r="R15">
-        <v>0.41129928081</v>
+        <v>0.362459477701</v>
       </c>
       <c r="S15">
-        <v>0.0005739220292895234</v>
+        <v>0.0003097521883899404</v>
       </c>
       <c r="T15">
-        <v>0.0005739220292895231</v>
+        <v>0.0003097521883899405</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H16">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I16">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J16">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N16">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q16">
-        <v>0.1143419891166667</v>
+        <v>0.3992955330642222</v>
       </c>
       <c r="R16">
-        <v>1.02907790205</v>
+        <v>3.593659797578</v>
       </c>
       <c r="S16">
-        <v>0.00143596282657828</v>
+        <v>0.003071085335357103</v>
       </c>
       <c r="T16">
-        <v>0.00143596282657828</v>
+        <v>0.003071085335357104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H17">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I17">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J17">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N17">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O17">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P17">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q17">
-        <v>3.561737541344</v>
+        <v>5.275442478178889</v>
       </c>
       <c r="R17">
-        <v>32.05563787209601</v>
+        <v>47.47898230361001</v>
       </c>
       <c r="S17">
-        <v>0.04473004840050315</v>
+        <v>0.04057479408278108</v>
       </c>
       <c r="T17">
-        <v>0.04473004840050314</v>
+        <v>0.04057479408278108</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H18">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I18">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J18">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.067552</v>
       </c>
       <c r="O18">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P18">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q18">
-        <v>0.3031945623217778</v>
+        <v>0.4253235519182222</v>
       </c>
       <c r="R18">
-        <v>2.728751060896</v>
+        <v>3.827911967264</v>
       </c>
       <c r="S18">
-        <v>0.003807666143279324</v>
+        <v>0.003271273567861225</v>
       </c>
       <c r="T18">
-        <v>0.003807666143279322</v>
+        <v>0.003271273567861225</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H19">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I19">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J19">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N19">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q19">
-        <v>0.05949451903622222</v>
+        <v>0.1338896559134445</v>
       </c>
       <c r="R19">
-        <v>0.535450671326</v>
+        <v>1.205006903221</v>
       </c>
       <c r="S19">
-        <v>0.0007471613742349727</v>
+        <v>0.001029780012003422</v>
       </c>
       <c r="T19">
-        <v>0.0007471613742349725</v>
+        <v>0.001029780012003422</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H20">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I20">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J20">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N20">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O20">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P20">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q20">
-        <v>0.024193578139</v>
+        <v>0.02333399363655556</v>
       </c>
       <c r="R20">
-        <v>0.217742203251</v>
+        <v>0.210005942729</v>
       </c>
       <c r="S20">
-        <v>0.0003038348302133657</v>
+        <v>0.0001794677869862769</v>
       </c>
       <c r="T20">
-        <v>0.0003038348302133656</v>
+        <v>0.0001794677869862769</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,46 +1718,356 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H21">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I21">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J21">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.187988666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.563966</v>
+      </c>
+      <c r="O21">
+        <v>0.03799237877268909</v>
+      </c>
+      <c r="P21">
+        <v>0.03799237877268909</v>
+      </c>
+      <c r="Q21">
+        <v>0.2313484403291111</v>
+      </c>
+      <c r="R21">
+        <v>2.082135962962</v>
+      </c>
+      <c r="S21">
+        <v>0.001779360758183579</v>
+      </c>
+      <c r="T21">
+        <v>0.001779360758183579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="L21">
+      <c r="F22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M21">
-        <v>0.803095</v>
-      </c>
-      <c r="N21">
-        <v>2.409285</v>
-      </c>
-      <c r="O21">
-        <v>0.01509863828272948</v>
-      </c>
-      <c r="P21">
-        <v>0.01509863828272948</v>
-      </c>
-      <c r="Q21">
-        <v>0.06053275022833333</v>
-      </c>
-      <c r="R21">
-        <v>0.5447947520550001</v>
-      </c>
-      <c r="S21">
-        <v>0.0007601999911838561</v>
-      </c>
-      <c r="T21">
-        <v>0.0007601999911838558</v>
+      <c r="G22">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J22">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>49.89274333333334</v>
+      </c>
+      <c r="N22">
+        <v>149.67823</v>
+      </c>
+      <c r="O22">
+        <v>0.8663408689480834</v>
+      </c>
+      <c r="P22">
+        <v>0.8663408689480835</v>
+      </c>
+      <c r="Q22">
+        <v>11.07452592855556</v>
+      </c>
+      <c r="R22">
+        <v>99.670733357</v>
+      </c>
+      <c r="S22">
+        <v>0.08517704647036137</v>
+      </c>
+      <c r="T22">
+        <v>0.08517704647036137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J23">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.022517333333333</v>
+      </c>
+      <c r="N23">
+        <v>12.067552</v>
+      </c>
+      <c r="O23">
+        <v>0.06984725491313053</v>
+      </c>
+      <c r="P23">
+        <v>0.06984725491313053</v>
+      </c>
+      <c r="Q23">
+        <v>0.8928647640888887</v>
+      </c>
+      <c r="R23">
+        <v>8.035782876799999</v>
+      </c>
+      <c r="S23">
+        <v>0.006867254092245092</v>
+      </c>
+      <c r="T23">
+        <v>0.006867254092245092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J24">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.266267666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.798803</v>
+      </c>
+      <c r="O24">
+        <v>0.02198755485004457</v>
+      </c>
+      <c r="P24">
+        <v>0.02198755485004457</v>
+      </c>
+      <c r="Q24">
+        <v>0.2810692130777778</v>
+      </c>
+      <c r="R24">
+        <v>2.5296229177</v>
+      </c>
+      <c r="S24">
+        <v>0.002161776095713773</v>
+      </c>
+      <c r="T24">
+        <v>0.002161776095713774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J25">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2206823333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.6620469999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.003831942516052412</v>
+      </c>
+      <c r="P25">
+        <v>0.003831942516052413</v>
+      </c>
+      <c r="Q25">
+        <v>0.04898412192222221</v>
+      </c>
+      <c r="R25">
+        <v>0.4408570972999999</v>
+      </c>
+      <c r="S25">
+        <v>0.0003767495652812258</v>
+      </c>
+      <c r="T25">
+        <v>0.0003767495652812258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J26">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.187988666666667</v>
+      </c>
+      <c r="N26">
+        <v>6.563966</v>
+      </c>
+      <c r="O26">
+        <v>0.03799237877268909</v>
+      </c>
+      <c r="P26">
+        <v>0.03799237877268909</v>
+      </c>
+      <c r="Q26">
+        <v>0.4856605510444444</v>
+      </c>
+      <c r="R26">
+        <v>4.370944959399999</v>
+      </c>
+      <c r="S26">
+        <v>0.003735341051346425</v>
+      </c>
+      <c r="T26">
+        <v>0.003735341051346425</v>
       </c>
     </row>
   </sheetData>
